--- a/biology/Médecine/Robert_Istepanian/Robert_Istepanian.xlsx
+++ b/biology/Médecine/Robert_Istepanian/Robert_Istepanian.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Robert S. H. Istepanian est un scientifique et technologue britannique, professeur à la faculté de médecine, (Institute of Global Health Innovation) à l'Imperial College de Londres[1]. Il est connu comme le premier scientifique[2] à avoir inventé l'expression de MHealth[3],[4],[5].
-En 2012, Istepanian a inventé le nouveau terme 4G Health[6],[7] qui est défini comme « l'évolution de la santé mobile vers des systèmes médicaux personnalisés ciblés avec des fonctionnalités adaptables et une compatibilité avec les futurs réseaux 4G »[8].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Robert S. H. Istepanian est un scientifique et technologue britannique, professeur à la faculté de médecine, (Institute of Global Health Innovation) à l'Imperial College de Londres. Il est connu comme le premier scientifique à avoir inventé l'expression de MHealth.
+En 2012, Istepanian a inventé le nouveau terme 4G Health, qui est défini comme « l'évolution de la santé mobile vers des systèmes médicaux personnalisés ciblés avec des fonctionnalités adaptables et une compatibilité avec les futurs réseaux 4G ».
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a obtenu son doctorat du département de génie électronique et électrique de l'Université de Loughborough, au Royaume-Uni en 1994[9]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a obtenu son doctorat du département de génie électronique et électrique de l'Université de Loughborough, au Royaume-Uni en 1994. 
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Istepanian a occupé plusieurs postes universitaires et de recherche au Royaume-Uni et au Canada. Il occupa notamment une chaire de communication de données pour les soins de santé et un poste de fondateur-directeur du Mobile Information and Network Technologies Research Centre (MINT) à l'Université de Kingston de Londres (2003-2013)[10]. Il a également été professeur à la division de médecine cellulaire et moléculaire de la St George's, University of London (2005-2008). Ses autres mandats universitaires comprenaient des postes de maître de conférences à l'Université de Portsmouth et à l'Université Brunel, de professeur agrégé à l'Université Ryerson de Toronto et professeur adjoint à l'Université de Western Ontario au Canada[11],[12].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Istepanian a occupé plusieurs postes universitaires et de recherche au Royaume-Uni et au Canada. Il occupa notamment une chaire de communication de données pour les soins de santé et un poste de fondateur-directeur du Mobile Information and Network Technologies Research Centre (MINT) à l'Université de Kingston de Londres (2003-2013). Il a également été professeur à la division de médecine cellulaire et moléculaire de la St George's, University of London (2005-2008). Ses autres mandats universitaires comprenaient des postes de maître de conférences à l'Université de Portsmouth et à l'Université Brunel, de professeur agrégé à l'Université Ryerson de Toronto et professeur adjoint à l'Université de Western Ontario au Canada,.
 </t>
         </is>
       </c>
@@ -575,6 +591,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
